--- a/HLF-performance.xlsx
+++ b/HLF-performance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>CPU</t>
   </si>
@@ -83,10 +83,46 @@
     <t>Medium: 100,000 - 500,000 kbit/s      100 - 500 Mbps</t>
   </si>
   <si>
+    <t xml:space="preserve">BDW </t>
+  </si>
+  <si>
     <t>Large: 500,000 - 1,000,000 kbit/s         500 - 1,000 Mbps</t>
   </si>
   <si>
+    <t>config 1</t>
+  </si>
+  <si>
+    <t>150kb</t>
+  </si>
+  <si>
+    <t>250 MBPS</t>
+  </si>
+  <si>
     <t>Extra Large: ≥ 1,000,000 kbit/s       1,000 Mbps (1 Gbps) and above</t>
+  </si>
+  <si>
+    <t>config 2</t>
+  </si>
+  <si>
+    <t>750 kb</t>
+  </si>
+  <si>
+    <t>config 3</t>
+  </si>
+  <si>
+    <t>50 MBps</t>
+  </si>
+  <si>
+    <t>config 4</t>
+  </si>
+  <si>
+    <t>750 Mbps</t>
+  </si>
+  <si>
+    <t>config 5</t>
+  </si>
+  <si>
+    <t>config 6</t>
   </si>
   <si>
     <t>BDW</t>
@@ -107,10 +143,10 @@
     <t>Extra Large: 1 MB - 50 MB     25MB</t>
   </si>
   <si>
-    <t>Range: ≤ 500 transactions-500</t>
+    <t>Range: ≤ 500 transactions-300</t>
   </si>
   <si>
-    <t>500 - 1000 transactions -1000</t>
+    <t>500 - 1000 transactions -800</t>
   </si>
   <si>
     <t>1000 - 5000 transactions -5000</t>
@@ -138,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -168,6 +204,11 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -280,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -353,6 +394,12 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -391,7 +438,7 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6486,8 +6533,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="27.38"/>
     <col customWidth="1" min="3" max="3" width="23.88"/>
-    <col customWidth="1" min="4" max="4" width="33.0"/>
+    <col customWidth="1" min="4" max="4" width="50.88"/>
     <col customWidth="1" min="5" max="5" width="26.38"/>
   </cols>
   <sheetData>
@@ -6558,14 +6606,23 @@
       <c r="B5" s="23">
         <v>153600.0</v>
       </c>
-      <c r="C5" s="24">
-        <v>250000.0</v>
+      <c r="C5" s="25">
+        <v>150000.0</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="23">
         <v>8.0</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -6579,10 +6636,22 @@
         <v>750000.0</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="23">
         <v>8.0</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1000.0</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -6596,18 +6665,42 @@
         <v>1500000.0</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="23">
         <v>9.0</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1000.0</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
+      <c r="F8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1000.0</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21"/>
@@ -6615,6 +6708,18 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
+      <c r="F9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1000.0</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="21"/>
@@ -6622,6 +6727,18 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
+      <c r="F10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="26">
+        <v>5000.0</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="21"/>
@@ -6629,6 +6746,18 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
+      <c r="F11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="26">
+        <v>10000.0</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
@@ -6649,7 +6778,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
@@ -6663,11 +6792,11 @@
       <c r="B14" s="24">
         <v>5120.0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <v>250000.0</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E14" s="23">
         <v>8.0</v>
@@ -6680,11 +6809,11 @@
       <c r="B15" s="24">
         <v>30720.0</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <v>250000.0</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E15" s="23">
         <v>8.0</v>
@@ -6697,11 +6826,11 @@
       <c r="B16" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <v>250000.0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E16" s="23">
         <v>8.0</v>
@@ -6714,11 +6843,11 @@
       <c r="B17" s="24">
         <v>768000.0</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="28">
         <v>250000.0</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E17" s="23">
         <v>7.0</v>
@@ -6731,11 +6860,11 @@
       <c r="B18" s="24">
         <v>2.62144E7</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="28">
         <v>250000.0</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E18" s="23">
         <v>6.0</v>
@@ -6795,7 +6924,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
@@ -6803,34 +6932,34 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
-        <v>31</v>
+      <c r="A26" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="28">
         <v>250000.0</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E26" s="23">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
-        <v>32</v>
+      <c r="A27" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="28">
         <v>250000.0</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E27" s="23">
         <v>7.0</v>
@@ -6838,16 +6967,16 @@
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B28" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="28">
         <v>250000.0</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E28" s="23">
         <v>10.0</v>
@@ -6855,16 +6984,16 @@
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B29" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <v>250000.0</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E29" s="23">
         <v>9.0</v>
@@ -6872,301 +7001,301 @@
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B30" s="24">
         <v>153600.0</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <v>250000.0</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E30" s="23">
         <v>9.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34">
-      <c r="A34" s="28">
+      <c r="A34" s="30">
         <v>1000.0</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="31">
         <v>153600.0</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="30">
         <v>250000.0</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30">
         <v>3.0</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="30">
         <v>318.8</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30">
         <v>4.0</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="30">
         <v>339.3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30">
         <v>5.0</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="30">
         <v>339.4</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30">
         <v>6.0</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="30">
         <v>340.3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30">
         <v>7.0</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="30">
         <v>341.2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="30">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32">
         <v>8.0</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="30">
         <v>343.5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30">
         <v>9.0</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="30">
         <v>334.9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30">
         <v>10.0</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="30">
         <v>330.7</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30">
         <v>11.0</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="30">
         <v>312.8</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30">
         <v>12.0</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="30">
         <v>304.9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30">
         <v>13.0</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="30">
         <v>269.9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="28">
+      <c r="A46" s="30">
         <v>1000.0</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="31">
         <v>768000.0</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="30">
         <v>250000.0</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
     </row>
     <row r="47">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30">
         <v>2.0</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="30">
         <v>293.3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30">
         <v>3.0</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="30">
         <v>307.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30">
         <v>4.0</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="30">
         <v>310.6</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30">
         <v>5.0</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="30">
         <v>310.7</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30">
         <v>6.0</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="30">
         <v>315.8</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="30">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="32">
         <v>7.0</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="30">
         <v>316.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30">
         <v>8.0</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="30">
         <v>313.8</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30">
         <v>9.0</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="30">
         <v>308.3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30">
         <v>10.0</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="30">
         <v>303.4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30">
         <v>11.0</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="30">
         <v>279.3</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30">
         <v>12.0</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="30">
         <v>265.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -7174,280 +7303,280 @@
       <c r="E60" s="21"/>
     </row>
     <row r="61">
-      <c r="A61" s="31">
+      <c r="A61" s="33">
         <v>1000.0</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="34">
         <v>153600.0</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="33">
         <v>50000.0</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
     </row>
     <row r="62">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="31">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="33">
         <v>2.0</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="33">
         <v>302.9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="31">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="33">
         <v>3.0</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="33">
         <v>307.1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="31">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="33">
         <v>4.0</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="33">
         <v>307.2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="31">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="33">
         <v>5.0</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="33">
         <v>309.3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="31">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="33">
         <v>6.0</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="33">
         <v>315.2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="30">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="32">
         <v>7.0</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="33">
         <v>320.3</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="31">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="33">
         <v>8.0</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="33">
         <v>314.4</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="31">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="33">
         <v>9.0</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="33">
         <v>308.5</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="31">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="33">
         <v>10.0</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="33">
         <v>307.5</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="31">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="33">
         <v>11.0</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="33">
         <v>307.2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="31">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="33">
         <v>12.0</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="33">
         <v>295.3</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="31">
+      <c r="A73" s="33">
         <v>1000.0</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="33">
         <v>153600.0</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="34">
         <v>750000.0</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="33">
         <v>2.0</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="36">
         <v>302.6</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="31">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="33">
         <v>3.0</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="33">
         <v>305.3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="31">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="33">
         <v>4.0</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="33">
         <v>309.1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="31">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="33">
         <v>5.0</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="33">
         <v>318.1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="31">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="33">
         <v>6.0</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="33">
         <v>318.7</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="31">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="33">
         <v>7.0</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="33">
         <v>322.4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="30">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="32">
         <v>8.0</v>
       </c>
-      <c r="E79" s="31">
+      <c r="E79" s="33">
         <v>331.5</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="31">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="33">
         <v>9.0</v>
       </c>
-      <c r="E80" s="31">
+      <c r="E80" s="33">
         <v>321.2</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="31">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="33">
         <v>10.0</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E81" s="33">
         <v>315.5</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="31">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="33">
         <v>11.0</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="33">
         <v>308.8</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="31">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="33">
         <v>12.0</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="33">
         <v>308.7</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="31">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="33">
         <v>13.0</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="33">
         <v>308.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7455,264 +7584,264 @@
       <c r="E86" s="21"/>
     </row>
     <row r="87">
-      <c r="A87" s="35">
+      <c r="A87" s="37">
         <v>10000.0</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="38">
         <v>153600.0</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="38">
         <v>250000.0</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D87" s="38">
         <v>4.0</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E87" s="38">
         <v>570.2</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38">
         <v>5.0</v>
       </c>
-      <c r="E88" s="36">
+      <c r="E88" s="38">
         <v>573.4</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38">
         <v>6.0</v>
       </c>
-      <c r="E89" s="36">
+      <c r="E89" s="38">
         <v>576.9</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38">
         <v>7.0</v>
       </c>
-      <c r="E90" s="36">
+      <c r="E90" s="38">
         <v>586.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38">
         <v>8.0</v>
       </c>
-      <c r="E91" s="36">
+      <c r="E91" s="38">
         <v>586.9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="30">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="32">
         <v>9.0</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="38">
         <v>588.5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="36">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38">
         <v>10.0</v>
       </c>
-      <c r="E93" s="36">
+      <c r="E93" s="38">
         <v>587.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="36">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="38">
         <v>11.0</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E94" s="38">
         <v>580.7</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="36">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38">
         <v>12.0</v>
       </c>
-      <c r="E95" s="36">
+      <c r="E95" s="38">
         <v>575.5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="36">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="38">
         <v>13.0</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="38">
         <v>566.1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="35"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38">
         <v>14.0</v>
       </c>
-      <c r="E97" s="37">
+      <c r="E97" s="39">
         <v>521.6</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99">
-      <c r="A99" s="36">
+      <c r="A99" s="38">
         <v>5000.0</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="38">
         <v>153600.0</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="38">
         <v>250000.0</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D99" s="38">
         <v>5.0</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E99" s="38">
         <v>510.5</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="36">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="38">
         <v>6.0</v>
       </c>
-      <c r="E100" s="36">
+      <c r="E100" s="38">
         <v>520.9</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="38">
         <v>7.0</v>
       </c>
-      <c r="E101" s="36">
+      <c r="E101" s="38">
         <v>527.6</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="36">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="38">
         <v>8.0</v>
       </c>
-      <c r="E102" s="37">
+      <c r="E102" s="39">
         <v>537.1</v>
       </c>
-      <c r="F102" s="38"/>
+      <c r="F102" s="40"/>
     </row>
     <row r="103">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="30">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="32">
         <v>9.0</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="41">
         <v>544.9</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="30">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="32">
         <v>10.0</v>
       </c>
-      <c r="E104" s="36">
+      <c r="E104" s="38">
         <v>544.4</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="36">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="38">
         <v>11.0</v>
       </c>
-      <c r="E105" s="36">
+      <c r="E105" s="38">
         <v>541.1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="36">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="38">
         <v>12.0</v>
       </c>
-      <c r="E106" s="36">
+      <c r="E106" s="38">
         <v>540.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="36">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38">
         <v>13.0</v>
       </c>
-      <c r="E107" s="36">
+      <c r="E107" s="38">
         <v>531.8</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="35"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="38">
         <v>14.0</v>
       </c>
-      <c r="E108" s="36">
+      <c r="E108" s="38">
         <v>522.3</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="35"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="36">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="38">
         <v>15.0</v>
       </c>
-      <c r="E109" s="36">
+      <c r="E109" s="38">
         <v>502.0</v>
       </c>
     </row>
